--- a/DOCUMENTACION/INDICADOR FACTURACIÓN/INFO_REUNION_NOMINA.xlsx
+++ b/DOCUMENTACION/INDICADOR FACTURACIÓN/INFO_REUNION_NOMINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTO\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\PROYECTO1-INGRESOS\DOCUMENTACION\INDICADOR FACTURACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="CENTRO_COSTO" sheetId="1" r:id="rId1"/>
-    <sheet name="DETALLE_FACTURADO" sheetId="3" r:id="rId2"/>
+    <sheet name="DETALLE_FACTURADO_SEPT" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2084,19 +2084,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I214"/>
+  <dimension ref="A2:J215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>328</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1577</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>8873670</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1577</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1577</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>381749.41515776003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1577</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>3831940.7349350401</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1577</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>7649000.20370002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1577</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>6593965.6928448398</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2310,8 +2311,11 @@
       <c r="I9" s="9">
         <v>27330326.046637662</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="9">
+        <v>27330326.046637662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1580</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1580</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>5329314.0293546803</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1580</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>7858728.5462999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1580</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>3874536.6132</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1580</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>3874536.6132</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1580</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>3502921.8790259999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1580</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>7866149.0721338</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1580</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>1096566.6694799999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1580</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>5482833.3474000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2567,8 +2571,11 @@
       <c r="I19" s="9">
         <v>68285586.770094484</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="9">
+        <v>68285586.770094484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1588</v>
       </c>
@@ -2597,7 +2604,7 @@
         <v>8822257</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1588</v>
       </c>
@@ -2626,7 +2633,7 @@
         <v>3247947.4474511999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1588</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>7833269.9003699999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1588</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>3882577.2549660001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1588</v>
       </c>
@@ -2713,7 +2720,7 @@
         <v>3882577.2549660001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1588</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>4291269.5975940004</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1588</v>
       </c>
@@ -2771,7 +2778,7 @@
         <v>2697370</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1588</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>5012264.5794000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1588</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>8675073.3104999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1588</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>6168941.0208000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1588</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>5699999.3301335396</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2898,8 +2905,11 @@
       <c r="I31" s="9">
         <v>60213546.696180739</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="9">
+        <v>60213546.696180739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1596</v>
       </c>
@@ -2928,7 +2938,7 @@
         <v>21263798</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1596</v>
       </c>
@@ -2957,7 +2967,7 @@
         <v>2446304.9122049999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1596</v>
       </c>
@@ -2986,7 +2996,7 @@
         <v>9520199.2558287997</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1596</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>4943101.3747703098</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1596</v>
       </c>
@@ -3044,7 +3054,7 @@
         <v>3799926.9636251</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1596</v>
       </c>
@@ -3073,7 +3083,7 @@
         <v>1257459.6517073901</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1596</v>
       </c>
@@ -3102,7 +3112,7 @@
         <v>2529115</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>1689</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>15665740</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>1689</v>
       </c>
@@ -3160,7 +3170,7 @@
         <v>10089389.52</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>1689</v>
       </c>
@@ -3189,7 +3199,7 @@
         <v>4704537.4483413799</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>1689</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>3607569.3234779998</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>1689</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>3659133.3106320002</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>1689</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>3453213.6749999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3285,8 +3295,11 @@
       <c r="I45" s="9">
         <v>41179583.277451374</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="9">
+        <v>41179583.277451374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>1701</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>1701</v>
       </c>
@@ -3344,7 +3357,7 @@
         <v>1650000.7453338001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>1701</v>
       </c>
@@ -3373,7 +3386,7 @@
         <v>4553197.3562399996</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>1701</v>
       </c>
@@ -3402,7 +3415,7 @@
         <v>9008383.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>1701</v>
       </c>
@@ -3431,7 +3444,7 @@
         <v>4106618.0047068698</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>1701</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>4762507.1468625003</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>1701</v>
       </c>
@@ -3487,7 +3500,7 @@
         <v>4324024.08</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>1701</v>
       </c>
@@ -3516,7 +3529,7 @@
         <v>1765643.166</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>1701</v>
       </c>
@@ -3545,7 +3558,7 @@
         <v>5933521.932</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3556,8 +3569,11 @@
       <c r="I55" s="9">
         <v>55103895.931143165</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="9">
+        <v>55103895.931143165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>1734</v>
       </c>
@@ -3586,7 +3602,7 @@
         <v>13124250</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>1734</v>
       </c>
@@ -3615,7 +3631,7 @@
         <v>3553738.1910000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>1734</v>
       </c>
@@ -3644,7 +3660,7 @@
         <v>3375251.2499983502</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>1734</v>
       </c>
@@ -3673,7 +3689,7 @@
         <v>3489125.21999424</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>1734</v>
       </c>
@@ -3702,7 +3718,7 @@
         <v>9853549.5000070799</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>1734</v>
       </c>
@@ -3731,7 +3747,7 @@
         <v>4446653.2010036996</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>1734</v>
       </c>
@@ -3758,7 +3774,7 @@
         <v>4599986.0700038299</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>1734</v>
       </c>
@@ -3787,7 +3803,7 @@
         <v>7232682.0000044703</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>1734</v>
       </c>
@@ -3816,7 +3832,7 @@
         <v>7232682.0000044703</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>1734</v>
       </c>
@@ -3843,7 +3859,7 @@
         <v>7232682.0000044703</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3854,8 +3870,11 @@
       <c r="I66" s="9">
         <v>64140599.432020612</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="9">
+        <v>64140599.432020612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>1744</v>
       </c>
@@ -3884,7 +3903,7 @@
         <v>35458635</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3895,8 +3914,11 @@
       <c r="I68" s="9">
         <v>35458635</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="9">
+        <v>35458635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>1751</v>
       </c>
@@ -3925,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>1751</v>
       </c>
@@ -3954,7 +3976,7 @@
         <v>3299999.87421</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>1751</v>
       </c>
@@ -3983,7 +4005,7 @@
         <v>4862001.375</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -3994,8 +4016,11 @@
       <c r="I72" s="9">
         <v>8162001.24921</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J72" s="9">
+        <v>8162001.24921</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>1756</v>
       </c>
@@ -4024,7 +4049,7 @@
         <v>80222446</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4036,8 +4061,11 @@
       <c r="I74" s="9">
         <v>80222446</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="9">
+        <v>80222446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>1758</v>
       </c>
@@ -4066,7 +4094,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>1758</v>
       </c>
@@ -4095,7 +4123,7 @@
         <v>3691585.0440000002</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>1758</v>
       </c>
@@ -4124,7 +4152,7 @@
         <v>12113470.58004</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>1758</v>
       </c>
@@ -4153,7 +4181,7 @@
         <v>6735240</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -4164,8 +4192,11 @@
       <c r="I79" s="9">
         <v>39040295.62404</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J79" s="9">
+        <v>39040295.62404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>1800</v>
       </c>
@@ -4194,7 +4225,7 @@
         <v>4975879</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -4205,8 +4236,11 @@
       <c r="I81" s="9">
         <v>4975879</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="9">
+        <v>4975879</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>1802</v>
       </c>
@@ -4235,7 +4269,7 @@
         <v>21063300</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>1802</v>
       </c>
@@ -4264,7 +4298,7 @@
         <v>2596864.3199999998</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>1802</v>
       </c>
@@ -4293,7 +4327,7 @@
         <v>11945575.872</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>1802</v>
       </c>
@@ -4322,7 +4356,7 @@
         <v>3883563.8487999998</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>1802</v>
       </c>
@@ -4351,7 +4385,7 @@
         <v>1260681.4472000001</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>1802</v>
       </c>
@@ -4378,7 +4412,7 @@
         <v>2521362.8944000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>1802</v>
       </c>
@@ -4407,7 +4441,7 @@
         <v>7393849.7999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -4418,8 +4452,11 @@
       <c r="I89" s="9">
         <v>50665198.182400003</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="9">
+        <v>50665198.182400003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>1829</v>
       </c>
@@ -4448,7 +4485,7 @@
         <v>13393000</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>1829</v>
       </c>
@@ -4477,7 +4514,7 @@
         <v>2599066</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>1829</v>
       </c>
@@ -4506,7 +4543,7 @@
         <v>2525715</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>1829</v>
       </c>
@@ -4535,7 +4572,7 @@
         <v>3847977.3168000001</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>1829</v>
       </c>
@@ -4564,7 +4601,7 @@
         <v>7577145</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>1829</v>
       </c>
@@ -4593,7 +4630,7 @@
         <v>17275890.600000001</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>1829</v>
       </c>
@@ -4622,7 +4659,7 @@
         <v>4194370.71</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>1829</v>
       </c>
@@ -4651,7 +4688,7 @@
         <v>5876496.9000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>1829</v>
       </c>
@@ -4680,7 +4717,7 @@
         <v>3923277.3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>1829</v>
       </c>
@@ -4709,7 +4746,7 @@
         <v>6061716</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -4720,8 +4757,11 @@
       <c r="I100" s="9">
         <v>67274654.826799989</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="9">
+        <v>67274654.826799989</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>1837</v>
       </c>
@@ -4750,7 +4790,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>1837</v>
       </c>
@@ -4779,7 +4819,7 @@
         <v>1751544</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>1837</v>
       </c>
@@ -4808,7 +4848,7 @@
         <v>7314000</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>1837</v>
       </c>
@@ -4837,7 +4877,7 @@
         <v>3707880</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -4848,8 +4888,11 @@
       <c r="I105" s="9">
         <v>23273424</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="9">
+        <v>23273424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>1856</v>
       </c>
@@ -4872,7 +4915,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>1856</v>
       </c>
@@ -4901,7 +4944,7 @@
         <v>9438099</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>1856</v>
       </c>
@@ -4930,7 +4973,7 @@
         <v>4780586.32259</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>1856</v>
       </c>
@@ -4959,7 +5002,7 @@
         <v>4005511.1111099999</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>1856</v>
       </c>
@@ -4988,7 +5031,7 @@
         <v>2993471.25</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>1856</v>
       </c>
@@ -5017,7 +5060,7 @@
         <v>6137781</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -5028,8 +5071,11 @@
       <c r="I112" s="9">
         <v>47355448.683700003</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J112" s="9">
+        <v>47355448.683700003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>1858</v>
       </c>
@@ -5058,7 +5104,7 @@
         <v>102514365.09999999</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -5069,8 +5115,11 @@
       <c r="I114" s="9">
         <v>102514365.09999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="9">
+        <v>102514365.09999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>1860</v>
       </c>
@@ -5099,7 +5148,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>1860</v>
       </c>
@@ -5128,7 +5177,7 @@
         <v>2485980.9</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>1860</v>
       </c>
@@ -5157,7 +5206,7 @@
         <v>1952602.362</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>1860</v>
       </c>
@@ -5186,7 +5235,7 @@
         <v>5276897.6787843797</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>1860</v>
       </c>
@@ -5213,7 +5262,7 @@
         <v>5295413.1092362497</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>1860</v>
       </c>
@@ -5242,7 +5291,7 @@
         <v>6403896.7199999997</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -5253,8 +5302,11 @@
       <c r="I121" s="9">
         <v>30414790.770020626</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J121" s="9">
+        <v>30414790.770020626</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>1866</v>
       </c>
@@ -5283,7 +5335,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -5294,8 +5346,11 @@
       <c r="I123" s="9">
         <v>9800000</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J123" s="9">
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>1870</v>
       </c>
@@ -5324,7 +5379,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -5335,8 +5390,11 @@
       <c r="I125" s="9">
         <v>9800000</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="9">
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1873</v>
       </c>
@@ -5365,7 +5423,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1873</v>
       </c>
@@ -5394,7 +5452,7 @@
         <v>2833380</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1873</v>
       </c>
@@ -5423,7 +5481,7 @@
         <v>4162938</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1873</v>
       </c>
@@ -5452,7 +5510,7 @@
         <v>5406000</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -5463,8 +5521,11 @@
       <c r="I130" s="9">
         <v>19352318</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="9">
+        <v>19352318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1877</v>
       </c>
@@ -5493,7 +5554,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1877</v>
       </c>
@@ -5522,7 +5583,7 @@
         <v>11269411.199999999</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1877</v>
       </c>
@@ -5551,7 +5612,7 @@
         <v>4946048.1549000004</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1877</v>
       </c>
@@ -5578,7 +5639,7 @@
         <v>4946048.1549000004</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1877</v>
       </c>
@@ -5607,7 +5668,7 @@
         <v>3907772.68</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1877</v>
       </c>
@@ -5636,7 +5697,7 @@
         <v>810754.51500000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1877</v>
       </c>
@@ -5665,7 +5726,7 @@
         <v>6567111.5714999996</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1877</v>
       </c>
@@ -5694,7 +5755,7 @@
         <v>6975330</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1877</v>
       </c>
@@ -5723,7 +5784,7 @@
         <v>9416695.5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -5734,8 +5795,11 @@
       <c r="I140" s="9">
         <v>76639171.776299998</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J140" s="9">
+        <v>76639171.776299998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1880</v>
       </c>
@@ -5764,7 +5828,7 @@
         <v>41038864</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -5775,8 +5839,11 @@
       <c r="I142" s="9">
         <v>41038864</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J142" s="9">
+        <v>41038864</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1881</v>
       </c>
@@ -5805,7 +5872,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -5816,8 +5883,11 @@
       <c r="I144" s="9">
         <v>8200000</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J144" s="9">
+        <v>8200000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1883</v>
       </c>
@@ -5846,7 +5916,7 @@
         <v>11029019</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -5857,8 +5927,11 @@
       <c r="I146" s="9">
         <v>11029019</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="9">
+        <v>11029019</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1890</v>
       </c>
@@ -5887,7 +5960,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1890</v>
       </c>
@@ -5916,7 +5989,7 @@
         <v>2385000</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1890</v>
       </c>
@@ -5945,7 +6018,7 @@
         <v>4028551.2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1890</v>
       </c>
@@ -5974,7 +6047,7 @@
         <v>9540000</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1890</v>
       </c>
@@ -6003,7 +6076,7 @@
         <v>4950862.5</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -6014,8 +6087,11 @@
       <c r="I152" s="9">
         <v>32904413.699999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="9">
+        <v>32904413.699999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1891</v>
       </c>
@@ -6032,7 +6108,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1891</v>
       </c>
@@ -6061,7 +6137,7 @@
         <v>3030858</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1891</v>
       </c>
@@ -6090,7 +6166,7 @@
         <v>3663739.3739999998</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1891</v>
       </c>
@@ -6119,7 +6195,7 @@
         <v>3827925</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1891</v>
       </c>
@@ -6148,7 +6224,7 @@
         <v>6975330</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -6159,8 +6235,11 @@
       <c r="I158" s="9">
         <v>40747852.373999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J158" s="9">
+        <v>40747852.373999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1893</v>
       </c>
@@ -6189,7 +6268,7 @@
         <v>38277681</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -6200,8 +6279,11 @@
       <c r="I160" s="9">
         <v>38277681</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="9">
+        <v>38277681</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1899</v>
       </c>
@@ -6230,7 +6312,7 @@
         <v>26936126</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1899</v>
       </c>
@@ -6259,7 +6341,7 @@
         <v>4776563.5199999996</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1899</v>
       </c>
@@ -6288,7 +6370,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1899</v>
       </c>
@@ -6317,7 +6399,7 @@
         <v>3816000</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1899</v>
       </c>
@@ -6346,7 +6428,7 @@
         <v>3923277</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1899</v>
       </c>
@@ -6375,7 +6457,7 @@
         <v>4078350</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -6386,8 +6468,11 @@
       <c r="I167" s="9">
         <v>52680316.519999996</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="9">
+        <v>52680316.519999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1900</v>
       </c>
@@ -6416,7 +6501,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1900</v>
       </c>
@@ -6445,7 +6530,7 @@
         <v>3184375.68</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1900</v>
       </c>
@@ -6474,7 +6559,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1900</v>
       </c>
@@ -6503,7 +6588,7 @@
         <v>4626300.8880000003</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1900</v>
       </c>
@@ -6532,7 +6617,7 @@
         <v>4078350</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -6543,8 +6628,11 @@
       <c r="I173" s="9">
         <v>39239026.568000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="9">
+        <v>39239026.568000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1902</v>
       </c>
@@ -6573,7 +6661,7 @@
         <v>31781555</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1902</v>
       </c>
@@ -6602,7 +6690,7 @@
         <v>3184375.68</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1902</v>
       </c>
@@ -6631,7 +6719,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1902</v>
       </c>
@@ -6660,7 +6748,7 @@
         <v>3688800</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1902</v>
       </c>
@@ -6689,7 +6777,7 @@
         <v>3922500</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1902</v>
       </c>
@@ -6718,7 +6806,7 @@
         <v>4077000</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -6729,8 +6817,11 @@
       <c r="I180" s="9">
         <v>55654230.68</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="9">
+        <v>55654230.68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1903</v>
       </c>
@@ -6759,7 +6850,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1903</v>
       </c>
@@ -6788,7 +6879,7 @@
         <v>3642590.412</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1903</v>
       </c>
@@ -6817,7 +6908,7 @@
         <v>3816000</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1903</v>
       </c>
@@ -6846,7 +6937,7 @@
         <v>1448755</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1903</v>
       </c>
@@ -6875,7 +6966,7 @@
         <v>5795020</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
@@ -6886,8 +6977,11 @@
       <c r="I186" s="9">
         <v>24302365.412</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="9">
+        <v>24302365.412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1906</v>
       </c>
@@ -6916,7 +7010,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1906</v>
       </c>
@@ -6945,7 +7039,7 @@
         <v>3184375.68</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1906</v>
       </c>
@@ -6974,7 +7068,7 @@
         <v>4908306.1500000004</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1906</v>
       </c>
@@ -7003,7 +7097,7 @@
         <v>5124271.6206</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1906</v>
       </c>
@@ -7032,7 +7126,7 @@
         <v>7761187.5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -7043,8 +7137,11 @@
       <c r="I192" s="9">
         <v>45978140.950599998</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J192" s="9">
+        <v>45978140.950599998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1908</v>
       </c>
@@ -7073,7 +7170,7 @@
         <v>252093278</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
@@ -7084,8 +7181,11 @@
       <c r="I194" s="9">
         <v>252093278</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="9">
+        <v>252093278</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1909</v>
       </c>
@@ -7114,7 +7214,7 @@
         <v>38340000</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1909</v>
       </c>
@@ -7143,7 +7243,7 @@
         <v>7373794</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1909</v>
       </c>
@@ -7162,7 +7262,7 @@
         <v>3950246.88</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1909</v>
       </c>
@@ -7191,7 +7291,7 @@
         <v>7198849</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1909</v>
       </c>
@@ -7220,7 +7320,7 @@
         <v>4194371</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1909</v>
       </c>
@@ -7249,7 +7349,7 @@
         <v>12040000</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1909</v>
       </c>
@@ -7268,7 +7368,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -7279,8 +7379,11 @@
       <c r="I202" s="9">
         <v>79547260.879999995</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="9">
+        <v>79547260.879999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1910</v>
       </c>
@@ -7309,7 +7412,7 @@
         <v>53392687</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
@@ -7320,8 +7423,11 @@
       <c r="I204" s="17">
         <v>53392687</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="9">
+        <v>53392687</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1911</v>
       </c>
@@ -7350,7 +7456,7 @@
         <v>61467660</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
       <c r="D206" s="18"/>
@@ -7361,8 +7467,11 @@
       <c r="I206" s="21">
         <v>61467660</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="9">
+        <v>61467660</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1914</v>
       </c>
@@ -7391,7 +7500,7 @@
         <v>36796302</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
@@ -7402,8 +7511,11 @@
       <c r="I208" s="25">
         <v>36796302</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="9">
+        <v>36796302</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1926</v>
       </c>
@@ -7432,7 +7544,7 @@
         <v>11614500</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1926</v>
       </c>
@@ -7461,7 +7573,7 @@
         <v>2563655.5</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1926</v>
       </c>
@@ -7490,7 +7602,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1926</v>
       </c>
@@ -7519,7 +7631,7 @@
         <v>2969285.55</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1926</v>
       </c>
@@ -7548,7 +7660,7 @@
         <v>4680000</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="26"/>
       <c r="C214" s="26"/>
       <c r="D214" s="26"/>
@@ -7559,6 +7671,15 @@
       <c r="I214" s="29">
         <v>30527441.050000001</v>
       </c>
+      <c r="J214" s="9">
+        <v>30527441.050000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J215" s="9">
+        <f>+SUM(J2:J214)</f>
+        <v>1825078705.5005987</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
